--- a/artfynd/A 62655-2022.xlsx
+++ b/artfynd/A 62655-2022.xlsx
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109853168</v>
+        <v>109853088</v>
       </c>
       <c r="B9" t="n">
-        <v>77588</v>
+        <v>73698</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>864</v>
+        <v>1467</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458567.6177838827</v>
+        <v>458682.9831145834</v>
       </c>
       <c r="R9" t="n">
-        <v>6910615.35053566</v>
+        <v>6910834.730994376</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109853088</v>
+        <v>109852962</v>
       </c>
       <c r="B10" t="n">
-        <v>73698</v>
+        <v>89406</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1467</v>
+        <v>1204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458682.9831145834</v>
+        <v>458604.1467445081</v>
       </c>
       <c r="R10" t="n">
-        <v>6910834.730994376</v>
+        <v>6910745.989096207</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109852962</v>
+        <v>109852942</v>
       </c>
       <c r="B11" t="n">
-        <v>89406</v>
+        <v>89673</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,21 +1713,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458604.1467445081</v>
+        <v>458624.8446887356</v>
       </c>
       <c r="R11" t="n">
-        <v>6910745.989096207</v>
+        <v>6910763.397753252</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109852942</v>
+        <v>109876605</v>
       </c>
       <c r="B12" t="n">
-        <v>89673</v>
+        <v>56395</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,38 +1826,43 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Skedflötarna, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458624.8446887356</v>
+        <v>458587.280630524</v>
       </c>
       <c r="R12" t="n">
-        <v>6910763.397753252</v>
+        <v>6910812.67010971</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1911,22 +1916,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Martin Kämpedal</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Martin Kämpedal</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>109876605</v>
+        <v>109875646</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>77507</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,43 +1944,40 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>230405</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Skedflötarna, Hjd</t>
+          <t>Torpvallen, Hjd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458587.280630524</v>
+        <v>458548.9991899654</v>
       </c>
       <c r="R13" t="n">
-        <v>6910812.67010971</v>
+        <v>6910766.194164375</v>
       </c>
       <c r="S13" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2023,6 +2025,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2041,7 +2044,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>109875646</v>
+        <v>109875640</v>
       </c>
       <c r="B14" t="n">
         <v>77507</v>
@@ -2084,10 +2087,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>458548.9991899654</v>
+        <v>458575.8866563534</v>
       </c>
       <c r="R14" t="n">
-        <v>6910766.194164375</v>
+        <v>6910681.723629645</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2157,7 +2160,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>109875640</v>
+        <v>109875687</v>
       </c>
       <c r="B15" t="n">
         <v>77507</v>
@@ -2200,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>458575.8866563534</v>
+        <v>459008.9636710359</v>
       </c>
       <c r="R15" t="n">
-        <v>6910681.723629645</v>
+        <v>6910920.905611085</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>109875687</v>
+        <v>109875690</v>
       </c>
       <c r="B16" t="n">
         <v>77507</v>
@@ -2316,10 +2319,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>459008.9636710359</v>
+        <v>458931.8478696992</v>
       </c>
       <c r="R16" t="n">
-        <v>6910920.905611085</v>
+        <v>6911009.699956965</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>109875605</v>
+        <v>109875659</v>
       </c>
       <c r="B17" t="n">
         <v>77507</v>
@@ -2428,14 +2431,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Garnlav, Hjd</t>
+          <t>Torpvallen, Hjd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>458561.882745445</v>
+        <v>458700.9619114345</v>
       </c>
       <c r="R17" t="n">
-        <v>6910603.334865634</v>
+        <v>6910858.215982608</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2505,7 +2508,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>109875690</v>
+        <v>109875679</v>
       </c>
       <c r="B18" t="n">
         <v>77507</v>
@@ -2548,10 +2551,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>458931.8478696992</v>
+        <v>458779.0883940465</v>
       </c>
       <c r="R18" t="n">
-        <v>6911009.699956965</v>
+        <v>6911003.208538387</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>109875659</v>
+        <v>109875671</v>
       </c>
       <c r="B19" t="n">
         <v>77507</v>
@@ -2664,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>458700.9619114345</v>
+        <v>458558.4460608965</v>
       </c>
       <c r="R19" t="n">
-        <v>6910858.215982608</v>
+        <v>6910890.18893374</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2737,7 +2740,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109875679</v>
+        <v>109875649</v>
       </c>
       <c r="B20" t="n">
         <v>77507</v>
@@ -2780,10 +2783,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>458779.0883940465</v>
+        <v>458670.7282092119</v>
       </c>
       <c r="R20" t="n">
-        <v>6911003.208538387</v>
+        <v>6910784.679410813</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2853,7 +2856,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>109875671</v>
+        <v>109875664</v>
       </c>
       <c r="B21" t="n">
         <v>77507</v>
@@ -2896,10 +2899,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>458558.4460608965</v>
+        <v>458639.1266098225</v>
       </c>
       <c r="R21" t="n">
-        <v>6910890.18893374</v>
+        <v>6910902.207586206</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>109875589</v>
+        <v>109875775</v>
       </c>
       <c r="B22" t="n">
         <v>77507</v>
@@ -3012,10 +3015,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>458504.9961458603</v>
+        <v>458881.5673188641</v>
       </c>
       <c r="R22" t="n">
-        <v>6910520.826033623</v>
+        <v>6910933.156907165</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3085,7 +3088,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>109875649</v>
+        <v>109875684</v>
       </c>
       <c r="B23" t="n">
         <v>77507</v>
@@ -3128,10 +3131,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>458670.7282092119</v>
+        <v>459003.819864114</v>
       </c>
       <c r="R23" t="n">
-        <v>6910784.679410813</v>
+        <v>6910842.877383335</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3201,10 +3204,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109875664</v>
+        <v>109853168</v>
       </c>
       <c r="B24" t="n">
-        <v>77507</v>
+        <v>77588</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3217,40 +3220,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>230405</v>
+        <v>864</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Torpvallen, Hjd</t>
+          <t>Skedflötarna, Hjd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>458639.1266098225</v>
+        <v>458567.6177838827</v>
       </c>
       <c r="R24" t="n">
-        <v>6910902.207586206</v>
+        <v>6910615.35053566</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3298,26 +3299,25 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Martin Kämpedal</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Martin Kämpedal</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>109875775</v>
+        <v>109875605</v>
       </c>
       <c r="B25" t="n">
         <v>77507</v>
@@ -3356,14 +3356,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Torpvallen, Hjd</t>
+          <t>Garnlav, Hjd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>458881.5673188641</v>
+        <v>458561.882745445</v>
       </c>
       <c r="R25" t="n">
-        <v>6910933.156907165</v>
+        <v>6910603.334865634</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>109875684</v>
+        <v>109875589</v>
       </c>
       <c r="B26" t="n">
         <v>77507</v>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>459003.819864114</v>
+        <v>458504.9961458603</v>
       </c>
       <c r="R26" t="n">
-        <v>6910842.877383335</v>
+        <v>6910520.826033623</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>

--- a/artfynd/A 62655-2022.xlsx
+++ b/artfynd/A 62655-2022.xlsx
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109853088</v>
+        <v>109853168</v>
       </c>
       <c r="B9" t="n">
-        <v>73698</v>
+        <v>77588</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1467</v>
+        <v>864</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458682.9831145834</v>
+        <v>458567.6177838827</v>
       </c>
       <c r="R9" t="n">
-        <v>6910834.730994376</v>
+        <v>6910615.35053566</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109852962</v>
+        <v>109853088</v>
       </c>
       <c r="B10" t="n">
-        <v>89406</v>
+        <v>73698</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1204</v>
+        <v>1467</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458604.1467445081</v>
+        <v>458682.9831145834</v>
       </c>
       <c r="R10" t="n">
-        <v>6910745.989096207</v>
+        <v>6910834.730994376</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109852942</v>
+        <v>109852962</v>
       </c>
       <c r="B11" t="n">
-        <v>89673</v>
+        <v>89406</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,21 +1713,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458624.8446887356</v>
+        <v>458604.1467445081</v>
       </c>
       <c r="R11" t="n">
-        <v>6910763.397753252</v>
+        <v>6910745.989096207</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109876605</v>
+        <v>109852942</v>
       </c>
       <c r="B12" t="n">
-        <v>56395</v>
+        <v>89673</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,43 +1826,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Skedflötarna, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458587.280630524</v>
+        <v>458624.8446887356</v>
       </c>
       <c r="R12" t="n">
-        <v>6910812.67010971</v>
+        <v>6910763.397753252</v>
       </c>
       <c r="S12" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1916,22 +1911,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Martin Kämpedal</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Martin Kämpedal</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>109875646</v>
+        <v>109876605</v>
       </c>
       <c r="B13" t="n">
-        <v>77507</v>
+        <v>56395</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1944,40 +1939,43 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>230405</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Torpvallen, Hjd</t>
+          <t>Skedflötarna, Hjd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458548.9991899654</v>
+        <v>458587.280630524</v>
       </c>
       <c r="R13" t="n">
-        <v>6910766.194164375</v>
+        <v>6910812.67010971</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2025,7 +2023,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2044,7 +2041,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>109875640</v>
+        <v>109875646</v>
       </c>
       <c r="B14" t="n">
         <v>77507</v>
@@ -2087,10 +2084,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>458575.8866563534</v>
+        <v>458548.9991899654</v>
       </c>
       <c r="R14" t="n">
-        <v>6910681.723629645</v>
+        <v>6910766.194164375</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2160,7 +2157,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>109875687</v>
+        <v>109875640</v>
       </c>
       <c r="B15" t="n">
         <v>77507</v>
@@ -2203,10 +2200,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>459008.9636710359</v>
+        <v>458575.8866563534</v>
       </c>
       <c r="R15" t="n">
-        <v>6910920.905611085</v>
+        <v>6910681.723629645</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>109875690</v>
+        <v>109875687</v>
       </c>
       <c r="B16" t="n">
         <v>77507</v>
@@ -2319,10 +2316,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>458931.8478696992</v>
+        <v>459008.9636710359</v>
       </c>
       <c r="R16" t="n">
-        <v>6911009.699956965</v>
+        <v>6910920.905611085</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2392,7 +2389,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>109875659</v>
+        <v>109875605</v>
       </c>
       <c r="B17" t="n">
         <v>77507</v>
@@ -2431,14 +2428,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Torpvallen, Hjd</t>
+          <t>Garnlav, Hjd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>458700.9619114345</v>
+        <v>458561.882745445</v>
       </c>
       <c r="R17" t="n">
-        <v>6910858.215982608</v>
+        <v>6910603.334865634</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,7 +2505,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>109875679</v>
+        <v>109875690</v>
       </c>
       <c r="B18" t="n">
         <v>77507</v>
@@ -2551,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>458779.0883940465</v>
+        <v>458931.8478696992</v>
       </c>
       <c r="R18" t="n">
-        <v>6911003.208538387</v>
+        <v>6911009.699956965</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2624,7 +2621,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>109875671</v>
+        <v>109875659</v>
       </c>
       <c r="B19" t="n">
         <v>77507</v>
@@ -2667,10 +2664,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>458558.4460608965</v>
+        <v>458700.9619114345</v>
       </c>
       <c r="R19" t="n">
-        <v>6910890.18893374</v>
+        <v>6910858.215982608</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2740,7 +2737,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109875649</v>
+        <v>109875679</v>
       </c>
       <c r="B20" t="n">
         <v>77507</v>
@@ -2783,10 +2780,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>458670.7282092119</v>
+        <v>458779.0883940465</v>
       </c>
       <c r="R20" t="n">
-        <v>6910784.679410813</v>
+        <v>6911003.208538387</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2856,7 +2853,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>109875664</v>
+        <v>109875671</v>
       </c>
       <c r="B21" t="n">
         <v>77507</v>
@@ -2899,10 +2896,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>458639.1266098225</v>
+        <v>458558.4460608965</v>
       </c>
       <c r="R21" t="n">
-        <v>6910902.207586206</v>
+        <v>6910890.18893374</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2972,7 +2969,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>109875775</v>
+        <v>109875589</v>
       </c>
       <c r="B22" t="n">
         <v>77507</v>
@@ -3015,10 +3012,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>458881.5673188641</v>
+        <v>458504.9961458603</v>
       </c>
       <c r="R22" t="n">
-        <v>6910933.156907165</v>
+        <v>6910520.826033623</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3088,7 +3085,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>109875684</v>
+        <v>109875649</v>
       </c>
       <c r="B23" t="n">
         <v>77507</v>
@@ -3131,10 +3128,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>459003.819864114</v>
+        <v>458670.7282092119</v>
       </c>
       <c r="R23" t="n">
-        <v>6910842.877383335</v>
+        <v>6910784.679410813</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3204,10 +3201,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109853168</v>
+        <v>109875664</v>
       </c>
       <c r="B24" t="n">
-        <v>77588</v>
+        <v>77507</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3220,38 +3217,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>864</v>
+        <v>230405</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Skedflötarna, Hjd</t>
+          <t>Torpvallen, Hjd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>458567.6177838827</v>
+        <v>458639.1266098225</v>
       </c>
       <c r="R24" t="n">
-        <v>6910615.35053566</v>
+        <v>6910902.207586206</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3299,25 +3298,26 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Martin Kämpedal</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Martin Kämpedal</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>109875605</v>
+        <v>109875775</v>
       </c>
       <c r="B25" t="n">
         <v>77507</v>
@@ -3356,14 +3356,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Garnlav, Hjd</t>
+          <t>Torpvallen, Hjd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>458561.882745445</v>
+        <v>458881.5673188641</v>
       </c>
       <c r="R25" t="n">
-        <v>6910603.334865634</v>
+        <v>6910933.156907165</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>109875589</v>
+        <v>109875684</v>
       </c>
       <c r="B26" t="n">
         <v>77507</v>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>458504.9961458603</v>
+        <v>459003.819864114</v>
       </c>
       <c r="R26" t="n">
-        <v>6910520.826033623</v>
+        <v>6910842.877383335</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
